--- a/data/TestData/elementDate.xlsx
+++ b/data/TestData/elementDate.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="elementsInfo" sheetId="1" r:id="rId1"/>
-    <sheet name="userNamePw" sheetId="2" r:id="rId2"/>
+    <sheet name="loginData" sheetId="2" r:id="rId2"/>
     <sheet name="modifyPw" sheetId="3" r:id="rId3"/>
     <sheet name="queryData" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="224">
   <si>
     <t>url</t>
   </si>
@@ -46,10 +46,10 @@
     <t>userNameEle</t>
   </si>
   <si>
-    <t>By.ID</t>
-  </si>
-  <si>
-    <t>username</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>id=username</t>
   </si>
   <si>
     <t>用户名输入框</t>
@@ -76,7 +76,7 @@
     <t>loginBtn</t>
   </si>
   <si>
-    <t>By.NAME</t>
+    <t>NAME</t>
   </si>
   <si>
     <t>sbtbutton</t>
@@ -88,7 +88,7 @@
     <t>errorMessage</t>
   </si>
   <si>
-    <t>By.XPATH</t>
+    <t>XPATH</t>
   </si>
   <si>
     <t>//*[@type='dialog']/div[2]/i</t>
@@ -615,147 +615,150 @@
     <t>缺省必填项关闭错误提示</t>
   </si>
   <si>
+    <t>输入项校验提示框</t>
+  </si>
+  <si>
+    <t>关闭提示框</t>
+  </si>
+  <si>
+    <t>加油站名称按钮</t>
+  </si>
+  <si>
+    <t>查询条件输入框</t>
+  </si>
+  <si>
+    <t>单位选择窗口</t>
+  </si>
+  <si>
+    <t>单位窗口数据列表</t>
+  </si>
+  <si>
+    <t>积分规则/活动申请菜单</t>
+  </si>
+  <si>
+    <t>申请类型</t>
+  </si>
+  <si>
+    <t>积分累计规则</t>
+  </si>
+  <si>
+    <t>积分累计活动</t>
+  </si>
+  <si>
+    <t>添加规则按钮</t>
+  </si>
+  <si>
+    <t>删除规则按钮</t>
+  </si>
+  <si>
+    <t>保存申请按钮</t>
+  </si>
+  <si>
+    <t>提交申请按钮</t>
+  </si>
+  <si>
+    <t>eleList</t>
+  </si>
+  <si>
+    <t>By.ID</t>
+  </si>
+  <si>
+    <t>申请原因</t>
+  </si>
+  <si>
+    <t>活动名称</t>
+  </si>
+  <si>
+    <t>活动描述</t>
+  </si>
+  <si>
+    <t>开始日期</t>
+  </si>
+  <si>
+    <t>结束日期</t>
+  </si>
+  <si>
+    <t>开始时间</t>
+  </si>
+  <si>
+    <t>结束时间</t>
+  </si>
+  <si>
+    <t>msgInfo</t>
+  </si>
+  <si>
+    <t>By.XPATH</t>
+  </si>
+  <si>
+    <t>错误提示框</t>
+  </si>
+  <si>
+    <t>createRule</t>
+  </si>
+  <si>
+    <t>添加规则窗口</t>
+  </si>
+  <si>
+    <t>elesList</t>
+  </si>
+  <si>
+    <t>积分累计规则名称</t>
+  </si>
+  <si>
+    <t>规则起始日期</t>
+  </si>
+  <si>
+    <t>规则结束日期</t>
+  </si>
+  <si>
+    <t>有效起始时间</t>
+  </si>
+  <si>
+    <t>有效结束时间</t>
+  </si>
+  <si>
+    <t>积分系数</t>
+  </si>
+  <si>
+    <t>rulDes</t>
+  </si>
+  <si>
+    <t>积分累计规则描述</t>
+  </si>
+  <si>
+    <t>minAmt</t>
+  </si>
+  <si>
+    <t>最小金额</t>
+  </si>
+  <si>
+    <t>maxAmt</t>
+  </si>
+  <si>
+    <t>最大金额</t>
+  </si>
+  <si>
+    <t>payNum</t>
+  </si>
+  <si>
+    <t>活动消费次数</t>
+  </si>
+  <si>
+    <t>sumAmt</t>
+  </si>
+  <si>
+    <t>活动消费金额</t>
+  </si>
+  <si>
+    <t>msg_Info</t>
+  </si>
+  <si>
+    <t>sBtn</t>
+  </si>
+  <si>
     <t>By.LINK_TEXT</t>
   </si>
   <si>
-    <t>输入项校验提示框</t>
-  </si>
-  <si>
-    <t>By.CSS_SELECTOR</t>
-  </si>
-  <si>
-    <t>关闭提示框</t>
-  </si>
-  <si>
-    <t>加油站名称按钮</t>
-  </si>
-  <si>
-    <t>查询条件输入框</t>
-  </si>
-  <si>
-    <t>单位选择窗口</t>
-  </si>
-  <si>
-    <t>单位窗口数据列表</t>
-  </si>
-  <si>
-    <t>积分规则/活动申请菜单</t>
-  </si>
-  <si>
-    <t>申请类型</t>
-  </si>
-  <si>
-    <t>积分累计规则</t>
-  </si>
-  <si>
-    <t>积分累计活动</t>
-  </si>
-  <si>
-    <t>添加规则按钮</t>
-  </si>
-  <si>
-    <t>删除规则按钮</t>
-  </si>
-  <si>
-    <t>保存申请按钮</t>
-  </si>
-  <si>
-    <t>提交申请按钮</t>
-  </si>
-  <si>
-    <t>eleList</t>
-  </si>
-  <si>
-    <t>申请原因</t>
-  </si>
-  <si>
-    <t>活动名称</t>
-  </si>
-  <si>
-    <t>活动描述</t>
-  </si>
-  <si>
-    <t>开始日期</t>
-  </si>
-  <si>
-    <t>结束日期</t>
-  </si>
-  <si>
-    <t>开始时间</t>
-  </si>
-  <si>
-    <t>结束时间</t>
-  </si>
-  <si>
-    <t>msgInfo</t>
-  </si>
-  <si>
-    <t>错误提示框</t>
-  </si>
-  <si>
-    <t>createRule</t>
-  </si>
-  <si>
-    <t>添加规则窗口</t>
-  </si>
-  <si>
-    <t>elesList</t>
-  </si>
-  <si>
-    <t>积分累计规则名称</t>
-  </si>
-  <si>
-    <t>规则起始日期</t>
-  </si>
-  <si>
-    <t>规则结束日期</t>
-  </si>
-  <si>
-    <t>有效起始时间</t>
-  </si>
-  <si>
-    <t>有效结束时间</t>
-  </si>
-  <si>
-    <t>积分系数</t>
-  </si>
-  <si>
-    <t>rulDes</t>
-  </si>
-  <si>
-    <t>积分累计规则描述</t>
-  </si>
-  <si>
-    <t>minAmt</t>
-  </si>
-  <si>
-    <t>最小金额</t>
-  </si>
-  <si>
-    <t>maxAmt</t>
-  </si>
-  <si>
-    <t>最大金额</t>
-  </si>
-  <si>
-    <t>payNum</t>
-  </si>
-  <si>
-    <t>活动消费次数</t>
-  </si>
-  <si>
-    <t>sumAmt</t>
-  </si>
-  <si>
-    <t>活动消费金额</t>
-  </si>
-  <si>
-    <t>msg_Info</t>
-  </si>
-  <si>
-    <t>sBtn</t>
-  </si>
-  <si>
     <t>保存按钮</t>
   </si>
   <si>
@@ -807,31 +810,76 @@
     <t>密码</t>
   </si>
   <si>
-    <t>正确的用户名和正确的密码</t>
-  </si>
-  <si>
-    <t>错误的用户名和正确的密码</t>
-  </si>
-  <si>
-    <t>空的用户名和正确的密码</t>
-  </si>
-  <si>
-    <t>错误的用户名和错误的密码</t>
-  </si>
-  <si>
-    <t>正确的用户名和空密码</t>
-  </si>
-  <si>
-    <t>正确的用户名和错误的密码</t>
-  </si>
-  <si>
-    <t>空用户名和空密码</t>
+    <t>验证码</t>
+  </si>
+  <si>
+    <t>预期结果</t>
+  </si>
+  <si>
+    <t>正确的用户名和正确的密码及空的验证码</t>
+  </si>
+  <si>
+    <t>验证码不能为空!</t>
+  </si>
+  <si>
+    <t>错误的用户名和正确的密码及正确的验证码</t>
+  </si>
+  <si>
+    <t>账号不存在!</t>
+  </si>
+  <si>
+    <t>错误的用户名和正确的密码及空的验证码</t>
+  </si>
+  <si>
+    <t>空的用户名和正确的密码及正确的验证码</t>
+  </si>
+  <si>
+    <t>用户名不能为空!</t>
+  </si>
+  <si>
+    <t>空的用户名和正确的密码及空的验证码</t>
+  </si>
+  <si>
+    <t>错误的用户名和错误的密码及正确的验证码</t>
+  </si>
+  <si>
+    <t>错误的用户名和错误的密码及空的验证码</t>
+  </si>
+  <si>
+    <t>正确的用户名和空密码及正确的验证码</t>
+  </si>
+  <si>
+    <t>密码不能为空!</t>
+  </si>
+  <si>
+    <t>正确的用户名和空密码及空的验证码</t>
+  </si>
+  <si>
+    <t>正确的用户名和错误的密码及正确的验证码</t>
+  </si>
+  <si>
+    <t>密码错误!</t>
+  </si>
+  <si>
+    <t>正确的用户名和错误的密码及空的验证码</t>
+  </si>
+  <si>
+    <t>空用户名和空密码及正确的验证码</t>
+  </si>
+  <si>
+    <t>空用户名和空密码空的验证码</t>
   </si>
   <si>
     <t>138001380061</t>
   </si>
   <si>
-    <t>错误格式的用户名和正确的密码</t>
+    <t>错误格式的用户名和正确的密码及正确的验证码</t>
+  </si>
+  <si>
+    <t>账号格式不匹配!</t>
+  </si>
+  <si>
+    <t>错误格式的用户名和正确的密码及空验证码</t>
   </si>
   <si>
     <t>旧密码</t>
@@ -908,12 +956,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -938,7 +986,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.5"/>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -946,12 +1000,6 @@
       <sz val="10.5"/>
       <color rgb="FFFF0000"/>
       <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -963,14 +1011,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Consolas"/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -994,6 +1042,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Consolas"/>
@@ -1004,13 +1057,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1028,6 +1074,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -1037,7 +1129,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1060,44 +1152,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1119,34 +1173,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1177,7 +1230,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1189,25 +1344,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1219,67 +1398,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1291,73 +1410,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1508,11 +1561,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1541,6 +1616,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1555,39 +1641,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1596,149 +1649,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1790,89 +1843,98 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1889,7 +1951,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2242,8 +2304,8 @@
   <sheetPr/>
   <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="4"/>
@@ -2251,1301 +2313,1211 @@
     <col min="1" max="1" width="20.375" customWidth="1"/>
     <col min="2" max="2" width="18.625" customWidth="1"/>
     <col min="3" max="3" width="16.125" customWidth="1"/>
-    <col min="4" max="4" width="39.5" style="25" customWidth="1"/>
-    <col min="5" max="5" width="36.625" style="26" customWidth="1"/>
+    <col min="4" max="4" width="39.5" style="27" customWidth="1"/>
+    <col min="5" max="5" width="36.625" style="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" spans="1:2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="20" customFormat="1" ht="29" customHeight="1" spans="1:5">
-      <c r="A2" s="29" t="s">
+    <row r="2" s="26" customFormat="1" ht="29" customHeight="1" spans="1:5">
+      <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="31" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="35" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31" t="s">
+      <c r="A5" s="32"/>
+      <c r="B5" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="35" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="30"/>
-      <c r="B6" s="31" t="s">
+      <c r="A6" s="32"/>
+      <c r="B6" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="35" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="30"/>
-      <c r="B7" s="31" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="35" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="30"/>
-      <c r="B8" s="36" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="39" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="40" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="30"/>
-      <c r="B10" s="39" t="s">
+      <c r="A10" s="32"/>
+      <c r="B10" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="40" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="30"/>
-      <c r="B11" s="39" t="s">
+      <c r="A11" s="32"/>
+      <c r="B11" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="40" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="30"/>
-      <c r="B12" s="39" t="s">
+      <c r="A12" s="32"/>
+      <c r="B12" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="40" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="30"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="38" t="s">
+      <c r="A13" s="32"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="40" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="30"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="38"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="40"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="30"/>
-      <c r="B15" s="39" t="s">
+      <c r="A15" s="32"/>
+      <c r="B15" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="40" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="30"/>
-      <c r="B16" s="39" t="s">
+      <c r="A16" s="32"/>
+      <c r="B16" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="40" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="30"/>
-      <c r="B17" s="39" t="s">
+      <c r="A17" s="32"/>
+      <c r="B17" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="40" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="30"/>
-      <c r="B18" s="39" t="s">
+      <c r="A18" s="32"/>
+      <c r="B18" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="40" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="30"/>
-      <c r="B19" s="39" t="s">
+      <c r="A19" s="32"/>
+      <c r="B19" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="40" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31" t="s">
+      <c r="A20" s="32"/>
+      <c r="B20" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="38" t="s">
+      <c r="E20" s="40" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="38" t="s">
+      <c r="E21" s="40" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="30"/>
-      <c r="B22" s="34" t="s">
+      <c r="A22" s="32"/>
+      <c r="B22" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="38" t="s">
+      <c r="E22" s="40" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="30"/>
-      <c r="B23" s="34" t="s">
+      <c r="A23" s="32"/>
+      <c r="B23" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="40" t="s">
+      <c r="D23" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="38" t="s">
+      <c r="E23" s="40" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="30"/>
-      <c r="B24" s="34" t="s">
+      <c r="A24" s="32"/>
+      <c r="B24" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="40" t="s">
+      <c r="D24" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="38" t="s">
+      <c r="E24" s="40" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="30"/>
-      <c r="B25" s="34" t="s">
+      <c r="A25" s="32"/>
+      <c r="B25" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="40" t="s">
+      <c r="D25" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="38" t="s">
+      <c r="E25" s="40" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="30"/>
-      <c r="B26" s="34" t="s">
+      <c r="A26" s="32"/>
+      <c r="B26" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="38" t="s">
+      <c r="E26" s="40" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="30"/>
-      <c r="B27" s="34" t="s">
+      <c r="A27" s="32"/>
+      <c r="B27" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="40" t="s">
+      <c r="D27" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="38" t="s">
+      <c r="E27" s="40" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="30"/>
-      <c r="B28" s="34" t="s">
+      <c r="A28" s="32"/>
+      <c r="B28" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="40" t="s">
+      <c r="D28" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="33" t="s">
+      <c r="E28" s="35" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="30"/>
-      <c r="B29" s="34" t="s">
+      <c r="A29" s="32"/>
+      <c r="B29" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="33" t="s">
+      <c r="E29" s="35" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="40" t="s">
+      <c r="D30" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="E30" s="33" t="s">
+      <c r="E30" s="35" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="30"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34" t="s">
+      <c r="A31" s="32"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="35"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="32"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="35"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="32"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="40"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="32"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="40"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="32"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="40"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="32"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="40"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="32"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="40"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="32"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="40"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="32"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="40"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="32"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="40"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="32"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="40"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="32"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="40"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="32"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="40"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="32"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="40"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="32"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="40" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="32"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="40" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="32"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="E48" s="40" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="32"/>
+      <c r="B49" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="40"/>
-      <c r="E31" s="33"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="30"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="33"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="30"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="41"/>
-      <c r="E33" s="38"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="30"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" s="41"/>
-      <c r="E34" s="38"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="30"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="41"/>
-      <c r="E35" s="38"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="30"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="41"/>
-      <c r="E36" s="38"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="30"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" s="41"/>
-      <c r="E37" s="38"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="30"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="41"/>
-      <c r="E38" s="38"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="30"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" s="41"/>
-      <c r="E39" s="38"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="30"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40" s="41"/>
-      <c r="E40" s="38"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="30"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="41"/>
-      <c r="E41" s="38"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="30"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="41"/>
-      <c r="E42" s="38"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="30"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="41"/>
-      <c r="E43" s="38"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="30"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D44" s="41"/>
-      <c r="E44" s="38"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="30"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D45" s="40"/>
-      <c r="E45" s="38" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="30"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="40"/>
-      <c r="E46" s="38" t="s">
+      <c r="D49" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" s="40" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="32"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="40" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="32"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="40" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="32"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="32"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="40" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="32"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="32"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="40" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="32"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="40" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="32"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="40" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="32"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="40" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="32"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="40" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="32"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="40" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="30"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="40"/>
-      <c r="E47" s="38" t="s">
+    <row r="61" spans="1:5">
+      <c r="A61" s="32"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="40" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="B48" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="C48" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="E48" s="38" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="30"/>
-      <c r="B49" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="C49" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D49" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="E49" s="38" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="30"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D50" s="40"/>
-      <c r="E50" s="38" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="30"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="40"/>
-      <c r="E51" s="38" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="30"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="40"/>
-      <c r="E52" s="38" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="30"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="40"/>
-      <c r="E53" s="38" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="30"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="40"/>
-      <c r="E54" s="38" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="30"/>
-      <c r="B55" s="34"/>
-      <c r="C55" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="40"/>
-      <c r="E55" s="38" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="30"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="40"/>
-      <c r="E56" s="38" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="30"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D57" s="40"/>
-      <c r="E57" s="38" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="30"/>
-      <c r="B58" s="34"/>
-      <c r="C58" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D58" s="44"/>
-      <c r="E58" s="38" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="30"/>
-      <c r="B59" s="34"/>
-      <c r="C59" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D59" s="44"/>
-      <c r="E59" s="38" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="30"/>
-      <c r="B60" s="42"/>
-      <c r="C60" s="34" t="s">
+    <row r="62" spans="1:5">
+      <c r="A62" s="32"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="D60" s="40"/>
-      <c r="E60" s="38" t="s">
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="32"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="32"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="39" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="32"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="32"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="39" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="32"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="32"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="39" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="30"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="D61" s="40"/>
-      <c r="E61" s="38" t="s">
+    <row r="69" spans="1:5">
+      <c r="A69" s="32"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="39" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="30"/>
-      <c r="B62" s="42"/>
-      <c r="C62" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D62" s="40"/>
-      <c r="E62" s="38" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="30"/>
-      <c r="B63" s="42"/>
-      <c r="C63" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="D63" s="40"/>
-      <c r="E63" s="38" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="30"/>
-      <c r="B64" s="34"/>
-      <c r="C64" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D64" s="40"/>
-      <c r="E64" s="37" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="30"/>
-      <c r="B65" s="34"/>
-      <c r="C65" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D65" s="40"/>
-      <c r="E65" s="37" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="30"/>
-      <c r="B66" s="34"/>
-      <c r="C66" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D66" s="40"/>
-      <c r="E66" s="37" t="s">
+    <row r="70" spans="1:5">
+      <c r="A70" s="32"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="47" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="30"/>
-      <c r="B67" s="34"/>
-      <c r="C67" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D67" s="40"/>
-      <c r="E67" s="37" t="s">
+    <row r="71" spans="1:5">
+      <c r="A71" s="32"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="39" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="30"/>
-      <c r="B68" s="42"/>
-      <c r="C68" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D68" s="40"/>
-      <c r="E68" s="37" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="30"/>
-      <c r="B69" s="42"/>
-      <c r="C69" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D69" s="40"/>
-      <c r="E69" s="37" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="30"/>
-      <c r="B70" s="34"/>
-      <c r="C70" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D70" s="40"/>
-      <c r="E70" s="18" t="s">
+    <row r="72" spans="1:5">
+      <c r="A72" s="32"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="39" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="30"/>
-      <c r="B71" s="34"/>
-      <c r="C71" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="40"/>
-      <c r="E71" s="37" t="s">
+    <row r="73" spans="1:5">
+      <c r="A73" s="32"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="39" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="30"/>
-      <c r="B72" s="42"/>
-      <c r="C72" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D72" s="40"/>
-      <c r="E72" s="37" t="s">
+    <row r="74" spans="1:5">
+      <c r="A74" s="32"/>
+      <c r="B74" s="36"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="45"/>
+      <c r="E74" s="39" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="30"/>
-      <c r="B73" s="42"/>
-      <c r="C73" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D73" s="40"/>
-      <c r="E73" s="37" t="s">
+    <row r="75" spans="1:5">
+      <c r="A75" s="32"/>
+      <c r="B75" s="36"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="39" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="30"/>
-      <c r="B74" s="34"/>
-      <c r="C74" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="D74" s="43"/>
-      <c r="E74" s="37" t="s">
+    <row r="76" spans="1:5">
+      <c r="A76" s="32"/>
+      <c r="B76" s="36"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="45"/>
+      <c r="E76" s="39" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="30"/>
-      <c r="B75" s="34"/>
-      <c r="C75" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="D75" s="43"/>
-      <c r="E75" s="37" t="s">
+    <row r="77" spans="1:5">
+      <c r="A77" s="32"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="45"/>
+      <c r="E77" s="39" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="30"/>
-      <c r="B76" s="34"/>
-      <c r="C76" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="D76" s="43"/>
-      <c r="E76" s="37" t="s">
+    <row r="78" spans="1:5">
+      <c r="A78" s="32"/>
+      <c r="B78" s="44" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="30"/>
-      <c r="B77" s="34"/>
-      <c r="C77" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="D77" s="43"/>
-      <c r="E77" s="37" t="s">
+      <c r="C78" s="36" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="30"/>
-      <c r="B78" s="42" t="s">
+      <c r="D78" s="42"/>
+      <c r="E78" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="C78" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="40"/>
-      <c r="E78" s="37" t="s">
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="32"/>
+      <c r="B79" s="44"/>
+      <c r="C79" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D79" s="42"/>
+      <c r="E79" s="39" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="30"/>
-      <c r="B79" s="42"/>
-      <c r="C79" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="40"/>
-      <c r="E79" s="37" t="s">
+    <row r="80" spans="1:5">
+      <c r="A80" s="32"/>
+      <c r="B80" s="44"/>
+      <c r="C80" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D80" s="42"/>
+      <c r="E80" s="39" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="30"/>
-      <c r="B80" s="42"/>
-      <c r="C80" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="40"/>
-      <c r="E80" s="37" t="s">
+    <row r="81" spans="1:5">
+      <c r="A81" s="32"/>
+      <c r="B81" s="44"/>
+      <c r="C81" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D81" s="42"/>
+      <c r="E81" s="39" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="30"/>
-      <c r="B81" s="42"/>
-      <c r="C81" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="40"/>
-      <c r="E81" s="37" t="s">
+    <row r="82" spans="1:5">
+      <c r="A82" s="32"/>
+      <c r="B82" s="44"/>
+      <c r="C82" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D82" s="42"/>
+      <c r="E82" s="39" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="30"/>
-      <c r="B82" s="42"/>
-      <c r="C82" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="40"/>
-      <c r="E82" s="37" t="s">
+    <row r="83" spans="1:5">
+      <c r="A83" s="32"/>
+      <c r="B83" s="44"/>
+      <c r="C83" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D83" s="42"/>
+      <c r="E83" s="39" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="30"/>
-      <c r="B83" s="42"/>
-      <c r="C83" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="40"/>
-      <c r="E83" s="37" t="s">
+    <row r="84" spans="1:5">
+      <c r="A84" s="32"/>
+      <c r="B84" s="44"/>
+      <c r="C84" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D84" s="42"/>
+      <c r="E84" s="39" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="30"/>
-      <c r="B84" s="42"/>
-      <c r="C84" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="40"/>
-      <c r="E84" s="37" t="s">
+    <row r="85" spans="1:5">
+      <c r="A85" s="32"/>
+      <c r="B85" s="36" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="30"/>
-      <c r="B85" s="34" t="s">
+      <c r="C85" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="C85" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D85" s="40"/>
-      <c r="E85" s="37" t="s">
+      <c r="D85" s="42"/>
+      <c r="E85" s="39" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="30"/>
-      <c r="B86" s="34" t="s">
+      <c r="A86" s="32"/>
+      <c r="B86" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="C86" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D86" s="40"/>
-      <c r="E86" s="37" t="s">
+      <c r="C86" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="D86" s="42"/>
+      <c r="E86" s="39" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="45"/>
-      <c r="B87" s="46" t="s">
+      <c r="A87" s="48"/>
+      <c r="B87" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="C87" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="40"/>
-      <c r="E87" s="37" t="s">
+      <c r="C87" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D87" s="42"/>
+      <c r="E87" s="39" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="45"/>
-      <c r="B88" s="47"/>
-      <c r="C88" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="40"/>
-      <c r="E88" s="37" t="s">
+      <c r="A88" s="48"/>
+      <c r="B88" s="50"/>
+      <c r="C88" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D88" s="42"/>
+      <c r="E88" s="39" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="45"/>
-      <c r="B89" s="47"/>
-      <c r="C89" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="40"/>
-      <c r="E89" s="37" t="s">
+      <c r="A89" s="48"/>
+      <c r="B89" s="50"/>
+      <c r="C89" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D89" s="42"/>
+      <c r="E89" s="39" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="45"/>
-      <c r="B90" s="47"/>
-      <c r="C90" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="40"/>
-      <c r="E90" s="37" t="s">
+      <c r="A90" s="48"/>
+      <c r="B90" s="50"/>
+      <c r="C90" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D90" s="42"/>
+      <c r="E90" s="39" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="45"/>
-      <c r="B91" s="47"/>
-      <c r="C91" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="40"/>
-      <c r="E91" s="37" t="s">
+      <c r="A91" s="48"/>
+      <c r="B91" s="50"/>
+      <c r="C91" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D91" s="42"/>
+      <c r="E91" s="39" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="45"/>
-      <c r="B92" s="48"/>
-      <c r="C92" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="40"/>
-      <c r="E92" s="37" t="s">
+      <c r="A92" s="48"/>
+      <c r="B92" s="51"/>
+      <c r="C92" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D92" s="42"/>
+      <c r="E92" s="39" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="45"/>
-      <c r="B93" s="49" t="s">
+      <c r="A93" s="48"/>
+      <c r="B93" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="C93" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D93" s="40"/>
-      <c r="E93" s="37" t="s">
+      <c r="C93" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="D93" s="42"/>
+      <c r="E93" s="39" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="45"/>
-      <c r="B94" s="49" t="s">
+      <c r="A94" s="48"/>
+      <c r="B94" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C94" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="40"/>
-      <c r="E94" s="37" t="s">
+      <c r="C94" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D94" s="42"/>
+      <c r="E94" s="39" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="45"/>
-      <c r="B95" s="49" t="s">
+      <c r="A95" s="48"/>
+      <c r="B95" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="C95" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="40"/>
-      <c r="E95" s="37" t="s">
+      <c r="C95" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D95" s="42"/>
+      <c r="E95" s="39" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="45"/>
-      <c r="B96" s="49" t="s">
+      <c r="A96" s="48"/>
+      <c r="B96" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="C96" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="40"/>
-      <c r="E96" s="37" t="s">
+      <c r="C96" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D96" s="42"/>
+      <c r="E96" s="39" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="45"/>
-      <c r="B97" s="49" t="s">
+      <c r="A97" s="48"/>
+      <c r="B97" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="C97" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="40"/>
-      <c r="E97" s="37" t="s">
+      <c r="C97" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D97" s="42"/>
+      <c r="E97" s="39" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="45"/>
-      <c r="B98" s="49" t="s">
+      <c r="A98" s="48"/>
+      <c r="B98" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="C98" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D98" s="40"/>
-      <c r="E98" s="37" t="s">
+      <c r="C98" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="D98" s="42"/>
+      <c r="E98" s="39" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="45"/>
-      <c r="B99" s="49" t="s">
+      <c r="A99" s="48"/>
+      <c r="B99" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="C99" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="D99" s="40"/>
-      <c r="E99" s="37" t="s">
+      <c r="C99" s="36" t="s">
         <v>159</v>
       </c>
+      <c r="D99" s="42"/>
+      <c r="E99" s="39" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="45"/>
-      <c r="B100" s="49" t="s">
-        <v>160</v>
-      </c>
-      <c r="C100" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="40"/>
-      <c r="E100" s="37" t="s">
+      <c r="A100" s="48"/>
+      <c r="B100" s="52" t="s">
         <v>161</v>
       </c>
+      <c r="C100" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D100" s="42"/>
+      <c r="E100" s="39" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="45"/>
-      <c r="B101" s="49" t="s">
-        <v>162</v>
-      </c>
-      <c r="C101" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="D101" s="40"/>
-      <c r="E101" s="37" t="s">
+      <c r="A101" s="48"/>
+      <c r="B101" s="52" t="s">
         <v>163</v>
       </c>
+      <c r="C101" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="D101" s="42"/>
+      <c r="E101" s="39" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="45"/>
-      <c r="B102" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="C102" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="40"/>
-      <c r="E102" s="37" t="s">
+      <c r="A102" s="48"/>
+      <c r="B102" s="52" t="s">
         <v>165</v>
       </c>
+      <c r="C102" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D102" s="42"/>
+      <c r="E102" s="39" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="45"/>
-      <c r="B103" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="C103" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="40"/>
-      <c r="E103" s="37" t="s">
+      <c r="A103" s="48"/>
+      <c r="B103" s="52" t="s">
         <v>167</v>
       </c>
+      <c r="C103" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D103" s="42"/>
+      <c r="E103" s="39" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="45"/>
-      <c r="B104" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="C104" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="40"/>
-      <c r="E104" s="37" t="s">
+      <c r="A104" s="48"/>
+      <c r="B104" s="52" t="s">
         <v>169</v>
       </c>
+      <c r="C104" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D104" s="42"/>
+      <c r="E104" s="39" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="45"/>
-      <c r="B105" s="49" t="s">
-        <v>170</v>
-      </c>
-      <c r="C105" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="40"/>
-      <c r="E105" s="37" t="s">
+      <c r="A105" s="48"/>
+      <c r="B105" s="52" t="s">
         <v>171</v>
       </c>
+      <c r="C105" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D105" s="42"/>
+      <c r="E105" s="39" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="45"/>
-      <c r="B106" s="49" t="s">
-        <v>172</v>
-      </c>
-      <c r="C106" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="40"/>
-      <c r="E106" s="37" t="s">
+      <c r="A106" s="48"/>
+      <c r="B106" s="52" t="s">
         <v>173</v>
+      </c>
+      <c r="C106" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D106" s="42"/>
+      <c r="E106" s="39" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3581,150 +3553,259 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="23.25" customWidth="1"/>
-    <col min="2" max="2" width="28.75" customWidth="1"/>
-    <col min="3" max="3" width="28.5" customWidth="1"/>
+    <col min="2" max="3" width="28.75" customWidth="1"/>
+    <col min="4" max="4" width="46.5" customWidth="1"/>
+    <col min="5" max="5" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" spans="1:3">
+    <row r="1" ht="34" customHeight="1" spans="1:5">
       <c r="A1" s="16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C1" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" ht="17.25" spans="1:3">
-      <c r="A2" s="17">
+      <c r="E1" s="17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" spans="1:5">
+      <c r="A2" s="18">
         <v>13800138006</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="18">
         <v>123456</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" spans="1:3">
-      <c r="A3" s="17">
+      <c r="C2" s="18"/>
+      <c r="D2" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:5">
+      <c r="A3" s="18">
         <v>13800138000</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="18">
         <v>123456</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" spans="1:3">
-      <c r="A4" s="19"/>
-      <c r="B4" s="17">
+      <c r="C3" s="18">
+        <v>1</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:5">
+      <c r="A4" s="18">
+        <v>13800138000</v>
+      </c>
+      <c r="B4" s="18">
         <v>123456</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" ht="17.25" spans="1:3">
-      <c r="A5" s="17">
+      <c r="C4" s="18"/>
+      <c r="D4" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:5">
+      <c r="A5" s="21"/>
+      <c r="B5" s="18">
+        <v>123456</v>
+      </c>
+      <c r="C5" s="18">
+        <v>1</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:5">
+      <c r="A6" s="21"/>
+      <c r="B6" s="18">
+        <v>123456</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="1:5">
+      <c r="A7" s="18">
         <v>13800138002</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B7" s="18">
         <v>123459</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" ht="17.25" spans="1:3">
-      <c r="A6" s="17">
+      <c r="C7" s="18">
+        <v>1</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:5">
+      <c r="A8" s="18">
+        <v>13800138002</v>
+      </c>
+      <c r="B8" s="18">
+        <v>123459</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="1:5">
+      <c r="A9" s="18">
         <v>13800138006</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="18" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="18">
+        <v>1</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="1:5">
+      <c r="A10" s="18">
+        <v>13800138006</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:5">
+      <c r="A11" s="18">
+        <v>13800138006</v>
+      </c>
+      <c r="B11" s="18">
+        <v>123451</v>
+      </c>
+      <c r="C11" s="18">
+        <v>1</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="1:5">
+      <c r="A12" s="18">
+        <v>13800138006</v>
+      </c>
+      <c r="B12" s="18">
+        <v>123451</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="E12" s="20" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="7" ht="17.25" spans="1:3">
-      <c r="A7" s="17">
-        <v>13800138006</v>
-      </c>
-      <c r="B7" s="17">
-        <v>123451</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8" ht="17.25" spans="1:3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="18" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="9" ht="16.5" spans="1:3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
-    </row>
-    <row r="10" ht="16.5" spans="1:3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
-    </row>
-    <row r="11" ht="16.5" spans="1:3">
-      <c r="A11" s="50" t="s">
-        <v>183</v>
-      </c>
-      <c r="B11" s="22">
+    <row r="13" ht="16.5" spans="1:5">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="18">
+        <v>1</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="1:5">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="1:5">
+      <c r="A15" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15" s="23">
         <v>123456</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="11"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="11"/>
-      <c r="F13" s="20"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="11"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="11"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="11"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="11"/>
+      <c r="C15" s="23">
+        <v>1</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="1:5">
+      <c r="A16" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="B16" s="23">
+        <v>123456</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>180</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3752,13 +3833,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>6</v>
@@ -3766,58 +3847,58 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3825,7 +3906,7 @@
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3859,7 +3940,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
@@ -3869,15 +3950,15 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="9" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3892,7 +3973,7 @@
     <row r="4" spans="1:5">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -3900,10 +3981,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="6" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
@@ -3917,7 +3998,7 @@
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="12" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:5">
@@ -3950,7 +4031,7 @@
     <row r="10" spans="1:5">
       <c r="A10" s="6"/>
       <c r="B10" s="7" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -3959,7 +4040,7 @@
     <row r="11" spans="1:5">
       <c r="A11" s="6"/>
       <c r="B11" s="2" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
@@ -3968,7 +4049,7 @@
     <row r="12" spans="1:5">
       <c r="A12" s="6"/>
       <c r="B12" s="7" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="C12" s="7">
         <v>1</v>
@@ -3977,7 +4058,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3986,23 +4067,23 @@
         <v>1</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="E13" s="13"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="6"/>
       <c r="B14" s="7" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="E14" s="13"/>
     </row>
